--- a/Баллы 2022.xlsx
+++ b/Баллы 2022.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -444,11 +445,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,7 +461,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,12 +919,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topRight" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1308,7 +1332,9 @@
       <c r="J6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -1326,7 +1352,7 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="11" t="n">
         <f aca="false">SUM(C6:Z6)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="11" t="n">
         <v>85</v>
@@ -1369,7 +1395,9 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="K7" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -1387,7 +1415,7 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="11" t="n">
         <f aca="false">SUM(C7:Z7)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="11" t="n">
         <v>85</v>
@@ -1489,7 +1517,9 @@
       <c r="J9" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -1507,7 +1537,7 @@
       <c r="Z9" s="31"/>
       <c r="AA9" s="33" t="n">
         <f aca="false">SUM(C9:Z9)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB9" s="33" t="n">
         <v>85</v>
@@ -2249,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2260,7 +2290,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2272,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2283,7 +2313,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Баллы 2022.xlsx
+++ b/Баллы 2022.xlsx
@@ -463,15 +463,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,24 +924,24 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="topRight" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="10"/>
@@ -949,10 +949,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="32.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="35.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="8.66"/>
@@ -1278,7 +1278,9 @@
       <c r="N5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="25"/>
@@ -1292,7 +1294,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="11" t="n">
         <f aca="false">SUM(C5:Z5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="11" t="n">
         <v>85</v>
@@ -1551,12 +1553,14 @@
         <v>1</v>
       </c>
       <c r="M9" s="29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="33"/>
@@ -1570,7 +1574,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="11" t="n">
         <f aca="false">SUM(C9:Z9)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB9" s="11" t="n">
         <v>85</v>
@@ -2324,7 +2328,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2347,7 +2351,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Баллы 2022.xlsx
+++ b/Баллы 2022.xlsx
@@ -358,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,10 +464,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,18 +922,18 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topRight" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.66"/>
@@ -1151,11 +1147,11 @@
         <f aca="false">IF(AA3&gt;=87,"отл",IF(AA3&gt;=73,"хорошо",IF(AA3&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD3" s="27" t="str">
+      <c r="AD3" s="23" t="str">
         <f aca="false">IF(AA3&gt;=98,"A+",IF(AA3&gt;=93,"A",IF(AA3&gt;=90,"A-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE3" s="27" t="str">
+      <c r="AE3" s="23" t="str">
         <f aca="false">IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1222,15 +1218,15 @@
       <c r="AB4" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC4" s="28" t="str">
+      <c r="AC4" s="27" t="str">
         <f aca="false">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD4" s="27" t="str">
+      <c r="AD4" s="23" t="str">
         <f aca="false">IF(AA4&gt;=98,"A+",IF(AA4&gt;=93,"A",IF(AA4&gt;=90,"A-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE4" s="27" t="str">
+      <c r="AE4" s="23" t="str">
         <f aca="false">IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1272,7 +1268,7 @@
       <c r="L5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="29" t="n">
+      <c r="M5" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="18" t="n">
@@ -1281,7 +1277,9 @@
       <c r="O5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="25"/>
       <c r="S5" s="17"/>
@@ -1289,25 +1287,25 @@
       <c r="U5" s="25"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
-      <c r="X5" s="29"/>
+      <c r="X5" s="28"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="11" t="n">
         <f aca="false">SUM(C5:Z5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC5" s="28" t="str">
+      <c r="AC5" s="27" t="str">
         <f aca="false">IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD5" s="27" t="str">
+      <c r="AD5" s="23" t="str">
         <f aca="false">IF(AA5&gt;=98,"A+",IF(AA5&gt;=93,"A",IF(AA5&gt;=90,"A-",IF(AA5&gt;=87,"B+",IF(AA5&gt;=83,"B",IF(AA5&gt;=80,"B-",IF(AA5&gt;=77,"C+",IF(AA5&gt;=73,"C",IF(AA5&gt;=70,"C-",IF(AA5&gt;=67,"D+",IF(AA5&gt;=63,"D",IF(AA5&gt;=60,"D-",IF(AA5&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE5" s="27" t="str">
+      <c r="AE5" s="23" t="str">
         <f aca="false">IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="18" t="n">
         <v>1</v>
@@ -1356,7 +1354,9 @@
         <v>1</v>
       </c>
       <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="25"/>
       <c r="S6" s="17"/>
@@ -1369,20 +1369,20 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="11" t="n">
         <f aca="false">SUM(C6:Z6)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC6" s="28" t="str">
+      <c r="AC6" s="27" t="str">
         <f aca="false">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD6" s="27" t="str">
+      <c r="AD6" s="23" t="str">
         <f aca="false">IF(AA6&gt;=98,"A+",IF(AA6&gt;=93,"A",IF(AA6&gt;=90,"A-",IF(AA6&gt;=87,"B+",IF(AA6&gt;=83,"B",IF(AA6&gt;=80,"B-",IF(AA6&gt;=77,"C+",IF(AA6&gt;=73,"C",IF(AA6&gt;=70,"C-",IF(AA6&gt;=67,"D+",IF(AA6&gt;=63,"D",IF(AA6&gt;=60,"D-",IF(AA6&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE6" s="27" t="str">
+      <c r="AE6" s="23" t="str">
         <f aca="false">IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1449,15 +1449,15 @@
       <c r="AB7" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC7" s="28" t="str">
+      <c r="AC7" s="27" t="str">
         <f aca="false">IF(AA7&gt;=87,"отл",IF(AA7&gt;=73,"хорошо",IF(AA7&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD7" s="27" t="str">
+      <c r="AD7" s="23" t="str">
         <f aca="false">IF(AA7&gt;=98,"A+",IF(AA7&gt;=93,"A",IF(AA7&gt;=90,"A-",IF(AA7&gt;=87,"B+",IF(AA7&gt;=83,"B",IF(AA7&gt;=80,"B-",IF(AA7&gt;=77,"C+",IF(AA7&gt;=73,"C",IF(AA7&gt;=70,"C-",IF(AA7&gt;=67,"D+",IF(AA7&gt;=63,"D",IF(AA7&gt;=60,"D-",IF(AA7&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE7" s="27" t="str">
+      <c r="AE7" s="23" t="str">
         <f aca="false">IF(AA7&gt;=AB7,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="29"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -1502,92 +1502,94 @@
       <c r="AB8" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC8" s="28" t="str">
+      <c r="AC8" s="27" t="str">
         <f aca="false">IF(AA8&gt;=87,"отл",IF(AA8&gt;=73,"хорошо",IF(AA8&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD8" s="27" t="str">
+      <c r="AD8" s="23" t="str">
         <f aca="false">IF(AA8&gt;=98,"A+",IF(AA8&gt;=93,"A",IF(AA8&gt;=90,"A-",IF(AA8&gt;=87,"B+",IF(AA8&gt;=83,"B",IF(AA8&gt;=80,"B-",IF(AA8&gt;=77,"C+",IF(AA8&gt;=73,"C",IF(AA8&gt;=70,"C-",IF(AA8&gt;=67,"D+",IF(AA8&gt;=63,"D",IF(AA8&gt;=60,"D-",IF(AA8&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE8" s="27" t="str">
+      <c r="AE8" s="23" t="str">
         <f aca="false">IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="9" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29" t="n">
+      <c r="C9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29" t="n">
+      <c r="F9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="J9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="29" t="n">
+      <c r="J9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="32"/>
+      <c r="N9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="31"/>
       <c r="AA9" s="11" t="n">
         <f aca="false">SUM(C9:Z9)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB9" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC9" s="28" t="str">
+      <c r="AC9" s="27" t="str">
         <f aca="false">IF(AA9&gt;=87,"отл",IF(AA9&gt;=73,"хорошо",IF(AA9&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD9" s="27" t="str">
+      <c r="AD9" s="23" t="str">
         <f aca="false">IF(AA9&gt;=98,"A+",IF(AA9&gt;=93,"A",IF(AA9&gt;=90,"A-",IF(AA9&gt;=87,"B+",IF(AA9&gt;=83,"B",IF(AA9&gt;=80,"B-",IF(AA9&gt;=77,"C+",IF(AA9&gt;=73,"C",IF(AA9&gt;=70,"C-",IF(AA9&gt;=67,"D+",IF(AA9&gt;=63,"D",IF(AA9&gt;=60,"D-",IF(AA9&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE9" s="27" t="str">
+      <c r="AE9" s="23" t="str">
         <f aca="false">IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1603,7 +1605,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1628,15 +1630,15 @@
       <c r="AB10" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="AC10" s="28" t="str">
+      <c r="AC10" s="27" t="str">
         <f aca="false">IF(AA10&gt;=87,"отл",IF(AA10&gt;=73,"хорошо",IF(AA10&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD10" s="27" t="str">
+      <c r="AD10" s="23" t="str">
         <f aca="false">IF(AA10&gt;=98,"A+",IF(AA10&gt;=93,"A",IF(AA10&gt;=90,"A-",IF(AA10&gt;=87,"B+",IF(AA10&gt;=83,"B",IF(AA10&gt;=80,"B-",IF(AA10&gt;=77,"C+",IF(AA10&gt;=73,"C",IF(AA10&gt;=70,"C-",IF(AA10&gt;=67,"D+",IF(AA10&gt;=63,"D",IF(AA10&gt;=60,"D-",IF(AA10&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE10" s="27" t="str">
+      <c r="AE10" s="23" t="str">
         <f aca="false">IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1661,7 +1663,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
-      <c r="R11" s="34"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
       <c r="U11" s="25"/>
@@ -1670,465 +1672,465 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="35" t="n">
+      <c r="AA11" s="34" t="n">
         <f aca="false">SUM(C11:Z11)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="35" t="n">
+      <c r="AB11" s="34" t="n">
         <v>85</v>
       </c>
-      <c r="AC11" s="28" t="str">
+      <c r="AC11" s="27" t="str">
         <f aca="false">IF(AA11&gt;=87,"отл",IF(AA11&gt;=73,"хорошо",IF(AA11&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD11" s="27" t="str">
+      <c r="AD11" s="23" t="str">
         <f aca="false">IF(AA11&gt;=98,"A+",IF(AA11&gt;=93,"A",IF(AA11&gt;=90,"A-",IF(AA11&gt;=87,"B+",IF(AA11&gt;=83,"B",IF(AA11&gt;=80,"B-",IF(AA11&gt;=77,"C+",IF(AA11&gt;=73,"C",IF(AA11&gt;=70,"C-",IF(AA11&gt;=67,"D+",IF(AA11&gt;=63,"D",IF(AA11&gt;=60,"D-",IF(AA11&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE11" s="27" t="str">
+      <c r="AE11" s="23" t="str">
         <f aca="false">IF(AA11&gt;=AB11,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="12" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38" t="s">
+    <row r="12" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="37" t="s">
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37" t="s">
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37" t="s">
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="38" t="s">
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="40" t="s">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Z12" s="40"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="11"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="47"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="47"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="47"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="47"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="47"/>
+      <c r="K18" s="46"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="47"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="47"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="47"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="47"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="47"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="47"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="47"/>
+      <c r="K25" s="46"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="9dfc" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" password="9de7" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -2328,7 +2330,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2351,7 +2353,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Баллы 2022.xlsx
+++ b/Баллы 2022.xlsx
@@ -464,7 +464,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -917,9 +917,9 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P17" activeCellId="0" sqref="P17"/>
+      <selection pane="topRight" activeCell="U15" activeCellId="0" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,7 +939,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="37.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="29.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.71"/>
@@ -1565,7 +1565,9 @@
         <v>1</v>
       </c>
       <c r="R9" s="32"/>
-      <c r="S9" s="30"/>
+      <c r="S9" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
@@ -1575,7 +1577,7 @@
       <c r="Z9" s="31"/>
       <c r="AA9" s="11" t="n">
         <f aca="false">SUM(C9:Z9)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB9" s="11" t="n">
         <v>85</v>
@@ -2329,7 +2331,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2352,7 +2354,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Баллы 2022.xlsx
+++ b/Баллы 2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Группа ФТ-61М</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">Зачетное занятие!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98"A+"; 93"A"; 90"A-"; 87"B+"; 83"B"; 80"B-"; 77;"C+"; 73"C"; 70"C-"; 67"D+"; 63"D"; 60"D-";50"E";"Не удовл"</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,6 +165,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -355,7 +364,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -546,6 +555,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -917,9 +930,9 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U15" activeCellId="0" sqref="U15"/>
+      <selection pane="topRight" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="18" t="n">
         <v>0</v>
@@ -1287,7 +1300,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="11" t="n">
         <f aca="false">SUM(C5:Z5)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="11" t="n">
         <v>85</v>
@@ -1410,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="18" t="n">
         <v>0</v>
@@ -1441,7 +1454,7 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="11" t="n">
         <f aca="false">SUM(C7:Z7)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="11" t="n">
         <v>85</v>
@@ -1550,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="28" t="n">
         <v>1</v>
@@ -1568,16 +1581,24 @@
       <c r="S9" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="T9" s="28"/>
+      <c r="T9" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
+      <c r="V9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
+      <c r="Y9" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="Z9" s="31"/>
       <c r="AA9" s="11" t="n">
         <f aca="false">SUM(C9:Z9)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB9" s="11" t="n">
         <v>85</v>
@@ -1860,18 +1881,20 @@
       <c r="AA16" s="46"/>
       <c r="AB16" s="46"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="46"/>
+      <c r="D17" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="14"/>
       <c r="M17" s="46"/>
       <c r="N17" s="46"/>
@@ -1890,18 +1913,18 @@
       <c r="AA17" s="46"/>
       <c r="AB17" s="46"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="46"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
       <c r="L18" s="14"/>
       <c r="M18" s="46"/>
       <c r="N18" s="46"/>
@@ -2132,7 +2155,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="9dfc" objects="true" scenarios="true"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
@@ -2140,6 +2163,7 @@
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="D17:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:J11 R7:R10 S2:Z2 C2:M3 K5:M7 R3:Y4 P5:T7 P2:Q4 V7:Y7 V5:Z6 C4:H9 I5:J9 I4:M4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -2331,7 +2355,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2354,7 +2378,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
